--- a/kvision/ksample/mytable/docmind/007_c5918.xlsx
+++ b/kvision/ksample/mytable/docmind/007_c5918.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -162,11 +162,58 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -410,6 +457,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,202 +848,202 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="80" t="n"/>
-      <c r="B1" s="80" t="inlineStr">
+      <c r="A1" s="83" t="n"/>
+      <c r="B1" s="83" t="inlineStr">
         <is>
           <t>广东理工学院</t>
         </is>
       </c>
-      <c r="C1" s="81" t="n"/>
-      <c r="D1" s="80" t="inlineStr">
+      <c r="C1" s="84" t="n"/>
+      <c r="D1" s="83" t="inlineStr">
         <is>
           <t>肇庆学校</t>
         </is>
       </c>
-      <c r="E1" s="81" t="n"/>
-      <c r="F1" s="80" t="inlineStr">
+      <c r="E1" s="84" t="n"/>
+      <c r="F1" s="83" t="inlineStr">
         <is>
           <t>集团</t>
         </is>
       </c>
-      <c r="G1" s="81" t="n"/>
+      <c r="G1" s="84" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="80" t="n"/>
-      <c r="B2" s="80" t="inlineStr">
+      <c r="A2" s="83" t="n"/>
+      <c r="B2" s="83" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="C2" s="80" t="inlineStr">
+      <c r="C2" s="83" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="D2" s="80" t="inlineStr">
+      <c r="D2" s="83" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="E2" s="80" t="inlineStr">
+      <c r="E2" s="83" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="F2" s="80" t="inlineStr">
+      <c r="F2" s="83" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="G2" s="80" t="inlineStr">
+      <c r="G2" s="83" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="82" t="inlineStr">
+      <c r="A3" s="85" t="inlineStr">
         <is>
           <t>2015/2016</t>
         </is>
       </c>
-      <c r="B3" s="80" t="inlineStr">
+      <c r="B3" s="83" t="inlineStr">
         <is>
           <t>19，152</t>
         </is>
       </c>
-      <c r="C3" s="80" t="inlineStr">
+      <c r="C3" s="83" t="inlineStr">
         <is>
           <t>94.3%</t>
         </is>
       </c>
-      <c r="D3" s="80" t="inlineStr">
+      <c r="D3" s="83" t="inlineStr">
         <is>
           <t>6.829</t>
         </is>
       </c>
-      <c r="E3" s="80" t="inlineStr">
+      <c r="E3" s="83" t="inlineStr">
         <is>
           <t>87.6%</t>
         </is>
       </c>
-      <c r="F3" s="80" t="inlineStr">
+      <c r="F3" s="83" t="inlineStr">
         <is>
           <t>25，981</t>
         </is>
       </c>
-      <c r="G3" s="80" t="inlineStr">
+      <c r="G3" s="83" t="inlineStr">
         <is>
           <t>92.5%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="82" t="inlineStr">
+      <c r="A4" s="85" t="inlineStr">
         <is>
           <t>2016/2017</t>
         </is>
       </c>
-      <c r="B4" s="80" t="inlineStr">
+      <c r="B4" s="83" t="inlineStr">
         <is>
           <t>19.152</t>
         </is>
       </c>
-      <c r="C4" s="82" t="inlineStr">
+      <c r="C4" s="85" t="inlineStr">
         <is>
           <t>90.1%</t>
         </is>
       </c>
-      <c r="D4" s="82" t="inlineStr">
+      <c r="D4" s="85" t="inlineStr">
         <is>
           <t>6.829</t>
         </is>
       </c>
-      <c r="E4" s="82" t="inlineStr">
+      <c r="E4" s="85" t="inlineStr">
         <is>
           <t>91.6%</t>
         </is>
       </c>
-      <c r="F4" s="80" t="inlineStr">
+      <c r="F4" s="83" t="inlineStr">
         <is>
           <t>25，981</t>
         </is>
       </c>
-      <c r="G4" s="82" t="inlineStr">
+      <c r="G4" s="85" t="inlineStr">
         <is>
           <t>90.5%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="82" t="inlineStr">
+      <c r="A5" s="85" t="inlineStr">
         <is>
           <t>2017/2018</t>
         </is>
       </c>
-      <c r="B5" s="82" t="inlineStr">
+      <c r="B5" s="85" t="inlineStr">
         <is>
           <t>25，148</t>
         </is>
       </c>
-      <c r="C5" s="82" t="inlineStr">
+      <c r="C5" s="85" t="inlineStr">
         <is>
           <t>86.3%</t>
         </is>
       </c>
-      <c r="D5" s="82" t="inlineStr">
+      <c r="D5" s="85" t="inlineStr">
         <is>
           <t>6.829</t>
         </is>
       </c>
-      <c r="E5" s="82" t="inlineStr">
+      <c r="E5" s="85" t="inlineStr">
         <is>
           <t>81.3%</t>
         </is>
       </c>
-      <c r="F5" s="82" t="inlineStr">
+      <c r="F5" s="85" t="inlineStr">
         <is>
           <t>31，977</t>
         </is>
       </c>
-      <c r="G5" s="82" t="inlineStr">
+      <c r="G5" s="85" t="inlineStr">
         <is>
           <t>85.2%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="82" t="inlineStr">
+      <c r="A6" s="85" t="inlineStr">
         <is>
           <t>2018/2019</t>
         </is>
       </c>
-      <c r="B6" s="80" t="inlineStr">
+      <c r="B6" s="83" t="inlineStr">
         <is>
           <t>29，148</t>
         </is>
       </c>
-      <c r="C6" s="82" t="inlineStr">
+      <c r="C6" s="85" t="inlineStr">
         <is>
           <t>90.8%</t>
         </is>
       </c>
-      <c r="D6" s="82" t="inlineStr">
+      <c r="D6" s="85" t="inlineStr">
         <is>
           <t>6，829</t>
         </is>
       </c>
-      <c r="E6" s="82" t="inlineStr">
+      <c r="E6" s="85" t="inlineStr">
         <is>
           <t>86.0%</t>
         </is>
       </c>
-      <c r="F6" s="80" t="inlineStr">
+      <c r="F6" s="83" t="inlineStr">
         <is>
           <t>35，977</t>
         </is>
       </c>
-      <c r="G6" s="82" t="inlineStr">
+      <c r="G6" s="85" t="inlineStr">
         <is>
           <t>89.9%</t>
         </is>

--- a/kvision/ksample/mytable/docmind/007_c5918.xlsx
+++ b/kvision/ksample/mytable/docmind/007_c5918.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -209,11 +209,58 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,6 +511,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -848,202 +902,202 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="83" t="n"/>
-      <c r="B1" s="83" t="inlineStr">
+      <c r="A1" s="86" t="n"/>
+      <c r="B1" s="86" t="inlineStr">
         <is>
           <t>广东理工学院</t>
         </is>
       </c>
-      <c r="C1" s="84" t="n"/>
-      <c r="D1" s="83" t="inlineStr">
+      <c r="C1" s="87" t="n"/>
+      <c r="D1" s="86" t="inlineStr">
         <is>
           <t>肇庆学校</t>
         </is>
       </c>
-      <c r="E1" s="84" t="n"/>
-      <c r="F1" s="83" t="inlineStr">
+      <c r="E1" s="87" t="n"/>
+      <c r="F1" s="86" t="inlineStr">
         <is>
           <t>集团</t>
         </is>
       </c>
-      <c r="G1" s="84" t="n"/>
+      <c r="G1" s="87" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="83" t="n"/>
-      <c r="B2" s="83" t="inlineStr">
+      <c r="A2" s="86" t="n"/>
+      <c r="B2" s="86" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="C2" s="83" t="inlineStr">
+      <c r="C2" s="86" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="D2" s="83" t="inlineStr">
+      <c r="D2" s="86" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="E2" s="83" t="inlineStr">
+      <c r="E2" s="86" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
-      <c r="F2" s="83" t="inlineStr">
+      <c r="F2" s="86" t="inlineStr">
         <is>
           <t>可容纳学生人数</t>
         </is>
       </c>
-      <c r="G2" s="83" t="inlineStr">
+      <c r="G2" s="86" t="inlineStr">
         <is>
           <t>学校利用率</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="85" t="inlineStr">
+      <c r="A3" s="88" t="inlineStr">
         <is>
           <t>2015/2016</t>
         </is>
       </c>
-      <c r="B3" s="83" t="inlineStr">
+      <c r="B3" s="86" t="inlineStr">
         <is>
           <t>19，152</t>
         </is>
       </c>
-      <c r="C3" s="83" t="inlineStr">
+      <c r="C3" s="86" t="inlineStr">
         <is>
           <t>94.3%</t>
         </is>
       </c>
-      <c r="D3" s="83" t="inlineStr">
+      <c r="D3" s="86" t="inlineStr">
         <is>
           <t>6.829</t>
         </is>
       </c>
-      <c r="E3" s="83" t="inlineStr">
+      <c r="E3" s="86" t="inlineStr">
         <is>
           <t>87.6%</t>
         </is>
       </c>
-      <c r="F3" s="83" t="inlineStr">
+      <c r="F3" s="86" t="inlineStr">
         <is>
           <t>25，981</t>
         </is>
       </c>
-      <c r="G3" s="83" t="inlineStr">
+      <c r="G3" s="86" t="inlineStr">
         <is>
           <t>92.5%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="85" t="inlineStr">
+      <c r="A4" s="88" t="inlineStr">
         <is>
           <t>2016/2017</t>
         </is>
       </c>
-      <c r="B4" s="83" t="inlineStr">
+      <c r="B4" s="86" t="inlineStr">
         <is>
           <t>19.152</t>
         </is>
       </c>
-      <c r="C4" s="85" t="inlineStr">
+      <c r="C4" s="88" t="inlineStr">
         <is>
           <t>90.1%</t>
         </is>
       </c>
-      <c r="D4" s="85" t="inlineStr">
+      <c r="D4" s="88" t="inlineStr">
         <is>
           <t>6.829</t>
         </is>
       </c>
-      <c r="E4" s="85" t="inlineStr">
+      <c r="E4" s="88" t="inlineStr">
         <is>
           <t>91.6%</t>
         </is>
       </c>
-      <c r="F4" s="83" t="inlineStr">
+      <c r="F4" s="86" t="inlineStr">
         <is>
           <t>25，981</t>
         </is>
       </c>
-      <c r="G4" s="85" t="inlineStr">
+      <c r="G4" s="88" t="inlineStr">
         <is>
           <t>90.5%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="85" t="inlineStr">
+      <c r="A5" s="88" t="inlineStr">
         <is>
           <t>2017/2018</t>
         </is>
       </c>
-      <c r="B5" s="85" t="inlineStr">
+      <c r="B5" s="88" t="inlineStr">
         <is>
           <t>25，148</t>
         </is>
       </c>
-      <c r="C5" s="85" t="inlineStr">
+      <c r="C5" s="88" t="inlineStr">
         <is>
           <t>86.3%</t>
         </is>
       </c>
-      <c r="D5" s="85" t="inlineStr">
+      <c r="D5" s="88" t="inlineStr">
         <is>
           <t>6.829</t>
         </is>
       </c>
-      <c r="E5" s="85" t="inlineStr">
+      <c r="E5" s="88" t="inlineStr">
         <is>
           <t>81.3%</t>
         </is>
       </c>
-      <c r="F5" s="85" t="inlineStr">
+      <c r="F5" s="88" t="inlineStr">
         <is>
           <t>31，977</t>
         </is>
       </c>
-      <c r="G5" s="85" t="inlineStr">
+      <c r="G5" s="88" t="inlineStr">
         <is>
           <t>85.2%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="85" t="inlineStr">
+      <c r="A6" s="88" t="inlineStr">
         <is>
           <t>2018/2019</t>
         </is>
       </c>
-      <c r="B6" s="83" t="inlineStr">
+      <c r="B6" s="86" t="inlineStr">
         <is>
           <t>29，148</t>
         </is>
       </c>
-      <c r="C6" s="85" t="inlineStr">
+      <c r="C6" s="88" t="inlineStr">
         <is>
           <t>90.8%</t>
         </is>
       </c>
-      <c r="D6" s="85" t="inlineStr">
+      <c r="D6" s="88" t="inlineStr">
         <is>
           <t>6，829</t>
         </is>
       </c>
-      <c r="E6" s="85" t="inlineStr">
+      <c r="E6" s="88" t="inlineStr">
         <is>
           <t>86.0%</t>
         </is>
       </c>
-      <c r="F6" s="83" t="inlineStr">
+      <c r="F6" s="86" t="inlineStr">
         <is>
           <t>35，977</t>
         </is>
       </c>
-      <c r="G6" s="85" t="inlineStr">
+      <c r="G6" s="88" t="inlineStr">
         <is>
           <t>89.9%</t>
         </is>
